--- a/시장분석용_정보/시장분석용_4122066000.xlsx
+++ b/시장분석용_정보/시장분석용_4122066000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="55">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -584,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV40"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,64 +636,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>70556</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>202006</v>
@@ -753,10 +657,10 @@
         <v>2092998174</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I2">
         <v>4122066000</v>
@@ -765,7 +669,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L2">
         <v>12045609</v>
@@ -777,117 +681,69 @@
         <v>16194</v>
       </c>
       <c r="O2">
-        <v>95.84</v>
+        <v>10.22</v>
       </c>
       <c r="P2">
-        <v>4.16</v>
+        <v>24.17</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="R2">
-        <v>13.09</v>
+        <v>11.02</v>
       </c>
       <c r="S2">
-        <v>26.29</v>
+        <v>3.66</v>
       </c>
       <c r="T2">
-        <v>4.55</v>
+        <v>0.44</v>
       </c>
       <c r="U2">
-        <v>13.22</v>
+        <v>14.26</v>
       </c>
       <c r="V2">
-        <v>38.69</v>
+        <v>29.91</v>
       </c>
       <c r="W2">
-        <v>4.16</v>
+        <v>2.06</v>
       </c>
       <c r="X2">
-        <v>37.91</v>
+        <v>0.44</v>
       </c>
       <c r="Y2">
-        <v>44.37</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>16.14</v>
+        <v>0.31</v>
       </c>
       <c r="AA2">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>13.82</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>42.76</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>32.31</v>
       </c>
       <c r="AE2">
-        <v>10.22</v>
+        <v>7.98</v>
       </c>
       <c r="AF2">
-        <v>24.17</v>
-      </c>
-      <c r="AG2">
-        <v>3.83</v>
-      </c>
-      <c r="AH2">
-        <v>11.02</v>
-      </c>
-      <c r="AI2">
-        <v>3.66</v>
-      </c>
-      <c r="AJ2">
-        <v>0.44</v>
-      </c>
-      <c r="AK2">
-        <v>14.26</v>
-      </c>
-      <c r="AL2">
-        <v>29.91</v>
-      </c>
-      <c r="AM2">
-        <v>2.06</v>
-      </c>
-      <c r="AN2">
-        <v>0.44</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0.31</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>13.82</v>
-      </c>
-      <c r="AS2">
-        <v>42.76</v>
-      </c>
-      <c r="AT2">
-        <v>32.31</v>
-      </c>
-      <c r="AU2">
-        <v>7.98</v>
-      </c>
-      <c r="AV2">
         <v>2.81</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>82480</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>202007</v>
@@ -899,10 +755,10 @@
         <v>2092998174</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I3">
         <v>4122066000</v>
@@ -911,7 +767,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L3">
         <v>55873274</v>
@@ -923,117 +779,69 @@
         <v>40907</v>
       </c>
       <c r="O3">
-        <v>94.79000000000001</v>
+        <v>2.48</v>
       </c>
       <c r="P3">
-        <v>5.21</v>
+        <v>12.17</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="R3">
-        <v>12.39</v>
+        <v>15.63</v>
       </c>
       <c r="S3">
-        <v>13.99</v>
+        <v>22.82</v>
       </c>
       <c r="T3">
-        <v>23.29</v>
+        <v>0.08</v>
       </c>
       <c r="U3">
-        <v>32.81</v>
+        <v>13.06</v>
       </c>
       <c r="V3">
-        <v>12.3</v>
+        <v>20.26</v>
       </c>
       <c r="W3">
-        <v>5.21</v>
+        <v>0.76</v>
       </c>
       <c r="X3">
-        <v>14.75</v>
+        <v>4.37</v>
       </c>
       <c r="Y3">
-        <v>29.94</v>
+        <v>0.25</v>
       </c>
       <c r="Z3">
-        <v>42.19</v>
+        <v>1.82</v>
       </c>
       <c r="AA3">
-        <v>13.12</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>17.84</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>32.69</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>22.84</v>
       </c>
       <c r="AE3">
-        <v>2.48</v>
+        <v>23.42</v>
       </c>
       <c r="AF3">
-        <v>12.17</v>
-      </c>
-      <c r="AG3">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AH3">
-        <v>15.63</v>
-      </c>
-      <c r="AI3">
-        <v>22.82</v>
-      </c>
-      <c r="AJ3">
-        <v>0.08</v>
-      </c>
-      <c r="AK3">
-        <v>13.06</v>
-      </c>
-      <c r="AL3">
-        <v>20.26</v>
-      </c>
-      <c r="AM3">
-        <v>0.76</v>
-      </c>
-      <c r="AN3">
-        <v>4.37</v>
-      </c>
-      <c r="AO3">
-        <v>0.25</v>
-      </c>
-      <c r="AP3">
-        <v>1.82</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>17.84</v>
-      </c>
-      <c r="AS3">
-        <v>32.69</v>
-      </c>
-      <c r="AT3">
-        <v>22.84</v>
-      </c>
-      <c r="AU3">
-        <v>23.42</v>
-      </c>
-      <c r="AV3">
         <v>1.14</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>94398</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>202008</v>
@@ -1045,10 +853,10 @@
         <v>2092998174</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I4">
         <v>4122066000</v>
@@ -1057,7 +865,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L4">
         <v>66818883</v>
@@ -1069,117 +877,69 @@
         <v>40259</v>
       </c>
       <c r="O4">
-        <v>84.45</v>
+        <v>1.55</v>
       </c>
       <c r="P4">
-        <v>15.55</v>
+        <v>13.72</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="R4">
-        <v>15.85</v>
+        <v>34.55</v>
       </c>
       <c r="S4">
-        <v>17.18</v>
+        <v>5.23</v>
       </c>
       <c r="T4">
-        <v>37.3</v>
+        <v>1.24</v>
       </c>
       <c r="U4">
-        <v>6.21</v>
+        <v>32.13</v>
       </c>
       <c r="V4">
-        <v>15.41</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
-        <v>8.06</v>
+        <v>3.8</v>
       </c>
       <c r="X4">
+        <v>1.7</v>
+      </c>
+      <c r="Y4">
+        <v>0.89</v>
+      </c>
+      <c r="Z4">
+        <v>0.1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>25.48</v>
+      </c>
+      <c r="AC4">
+        <v>42.97</v>
+      </c>
+      <c r="AD4">
         <v>14.04</v>
       </c>
-      <c r="Y4">
-        <v>51.7</v>
-      </c>
-      <c r="Z4">
-        <v>34.23</v>
-      </c>
-      <c r="AA4">
-        <v>0.03</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
       <c r="AE4">
-        <v>1.55</v>
+        <v>15.78</v>
       </c>
       <c r="AF4">
-        <v>13.72</v>
-      </c>
-      <c r="AG4">
-        <v>4.02</v>
-      </c>
-      <c r="AH4">
-        <v>34.55</v>
-      </c>
-      <c r="AI4">
-        <v>5.23</v>
-      </c>
-      <c r="AJ4">
-        <v>1.24</v>
-      </c>
-      <c r="AK4">
-        <v>32.13</v>
-      </c>
-      <c r="AL4">
-        <v>2.05</v>
-      </c>
-      <c r="AM4">
-        <v>3.8</v>
-      </c>
-      <c r="AN4">
-        <v>1.7</v>
-      </c>
-      <c r="AO4">
-        <v>0.89</v>
-      </c>
-      <c r="AP4">
-        <v>0.1</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>25.48</v>
-      </c>
-      <c r="AS4">
-        <v>42.97</v>
-      </c>
-      <c r="AT4">
-        <v>14.04</v>
-      </c>
-      <c r="AU4">
-        <v>15.78</v>
-      </c>
-      <c r="AV4">
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>104311</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>202009</v>
@@ -1191,10 +951,10 @@
         <v>8651501453</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I5">
         <v>4122066000</v>
@@ -1203,7 +963,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L5">
         <v>1394400</v>
@@ -1215,10 +975,10 @@
         <v>89467</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>61.48</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1227,38 +987,38 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>24.59</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>13.93</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>75.41</v>
+      </c>
+      <c r="AC5">
         <v>24.59</v>
       </c>
-      <c r="Y5">
-        <v>13.93</v>
-      </c>
-      <c r="Z5">
-        <v>61.48</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
       <c r="AD5">
         <v>0</v>
       </c>
@@ -1266,66 +1026,18 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>61.48</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>24.59</v>
-      </c>
-      <c r="AJ5">
-        <v>13.93</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>75.41</v>
-      </c>
-      <c r="AS5">
-        <v>24.59</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>106355</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>202009</v>
@@ -1337,10 +1049,10 @@
         <v>2092998174</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I6">
         <v>4122066000</v>
@@ -1349,7 +1061,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L6">
         <v>155136825</v>
@@ -1361,117 +1073,69 @@
         <v>64594</v>
       </c>
       <c r="O6">
-        <v>87.34999999999999</v>
+        <v>4.19</v>
       </c>
       <c r="P6">
-        <v>12.65</v>
+        <v>8.74</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>10.36</v>
       </c>
       <c r="R6">
-        <v>30.94</v>
+        <v>23.15</v>
       </c>
       <c r="S6">
-        <v>15.1</v>
+        <v>21.94</v>
       </c>
       <c r="T6">
-        <v>5.03</v>
+        <v>1.76</v>
       </c>
       <c r="U6">
-        <v>13.51</v>
+        <v>9.43</v>
       </c>
       <c r="V6">
-        <v>22.77</v>
+        <v>6.65</v>
       </c>
       <c r="W6">
-        <v>12.65</v>
+        <v>11.03</v>
       </c>
       <c r="X6">
-        <v>21.86</v>
+        <v>2.76</v>
       </c>
       <c r="Y6">
-        <v>42.93</v>
+        <v>0.43</v>
       </c>
       <c r="Z6">
-        <v>34.08</v>
+        <v>0.08</v>
       </c>
       <c r="AA6">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>14.34</v>
       </c>
       <c r="AE6">
-        <v>4.19</v>
+        <v>4.95</v>
       </c>
       <c r="AF6">
-        <v>8.74</v>
-      </c>
-      <c r="AG6">
-        <v>10.36</v>
-      </c>
-      <c r="AH6">
-        <v>23.15</v>
-      </c>
-      <c r="AI6">
-        <v>21.94</v>
-      </c>
-      <c r="AJ6">
-        <v>1.76</v>
-      </c>
-      <c r="AK6">
-        <v>9.43</v>
-      </c>
-      <c r="AL6">
-        <v>6.65</v>
-      </c>
-      <c r="AM6">
-        <v>11.03</v>
-      </c>
-      <c r="AN6">
-        <v>2.76</v>
-      </c>
-      <c r="AO6">
-        <v>0.43</v>
-      </c>
-      <c r="AP6">
-        <v>0.08</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>6.35</v>
-      </c>
-      <c r="AS6">
-        <v>69.84999999999999</v>
-      </c>
-      <c r="AT6">
-        <v>14.34</v>
-      </c>
-      <c r="AU6">
-        <v>4.95</v>
-      </c>
-      <c r="AV6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>116275</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>202010</v>
@@ -1483,10 +1147,10 @@
         <v>8651501453</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I7">
         <v>4122066000</v>
@@ -1495,7 +1159,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L7">
         <v>9170234</v>
@@ -1507,117 +1171,69 @@
         <v>137188</v>
       </c>
       <c r="O7">
-        <v>56.49</v>
+        <v>13.51</v>
       </c>
       <c r="P7">
-        <v>43.51</v>
+        <v>19.19</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>64.13</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>3.08</v>
+      </c>
+      <c r="W7">
+        <v>0.08</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>14.02</v>
+      </c>
+      <c r="AC7">
+        <v>46.09</v>
+      </c>
+      <c r="AD7">
+        <v>22.51</v>
+      </c>
+      <c r="AE7">
         <v>17.38</v>
       </c>
-      <c r="S7">
-        <v>24.65</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>6.06</v>
-      </c>
-      <c r="V7">
-        <v>8.4</v>
-      </c>
-      <c r="W7">
-        <v>43.51</v>
-      </c>
-      <c r="X7">
-        <v>1.3</v>
-      </c>
-      <c r="Y7">
-        <v>53.7</v>
-      </c>
-      <c r="Z7">
-        <v>14.1</v>
-      </c>
-      <c r="AA7">
-        <v>30.91</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>13.51</v>
-      </c>
       <c r="AF7">
-        <v>19.19</v>
-      </c>
-      <c r="AG7">
-        <v>64.13</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>3.08</v>
-      </c>
-      <c r="AM7">
-        <v>0.08</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>14.02</v>
-      </c>
-      <c r="AS7">
-        <v>46.09</v>
-      </c>
-      <c r="AT7">
-        <v>22.51</v>
-      </c>
-      <c r="AU7">
-        <v>17.38</v>
-      </c>
-      <c r="AV7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>118359</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>202010</v>
@@ -1629,10 +1245,10 @@
         <v>2092998174</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>4122066000</v>
@@ -1641,7 +1257,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L8">
         <v>125365938</v>
@@ -1653,117 +1269,69 @@
         <v>46839</v>
       </c>
       <c r="O8">
-        <v>87.87</v>
+        <v>2.61</v>
       </c>
       <c r="P8">
-        <v>12.13</v>
+        <v>13.37</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="R8">
-        <v>15.78</v>
+        <v>13.24</v>
       </c>
       <c r="S8">
-        <v>21.89</v>
+        <v>1.39</v>
       </c>
       <c r="T8">
-        <v>23.86</v>
+        <v>1.89</v>
       </c>
       <c r="U8">
-        <v>20.6</v>
+        <v>29.79</v>
       </c>
       <c r="V8">
-        <v>8.25</v>
+        <v>16.63</v>
       </c>
       <c r="W8">
-        <v>9.619999999999999</v>
+        <v>10.41</v>
       </c>
       <c r="X8">
-        <v>25.66</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>40.01</v>
+        <v>0.77</v>
       </c>
       <c r="Z8">
-        <v>30.25</v>
+        <v>0.71</v>
       </c>
       <c r="AA8">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>17.73</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>44.49</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>20.29</v>
       </c>
       <c r="AE8">
-        <v>2.61</v>
+        <v>14.02</v>
       </c>
       <c r="AF8">
-        <v>13.37</v>
-      </c>
-      <c r="AG8">
-        <v>9.68</v>
-      </c>
-      <c r="AH8">
-        <v>13.24</v>
-      </c>
-      <c r="AI8">
-        <v>1.39</v>
-      </c>
-      <c r="AJ8">
-        <v>1.89</v>
-      </c>
-      <c r="AK8">
-        <v>29.79</v>
-      </c>
-      <c r="AL8">
-        <v>16.63</v>
-      </c>
-      <c r="AM8">
-        <v>10.41</v>
-      </c>
-      <c r="AN8">
-        <v>1</v>
-      </c>
-      <c r="AO8">
-        <v>0.77</v>
-      </c>
-      <c r="AP8">
-        <v>0.71</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>17.73</v>
-      </c>
-      <c r="AS8">
-        <v>44.49</v>
-      </c>
-      <c r="AT8">
-        <v>20.29</v>
-      </c>
-      <c r="AU8">
-        <v>14.02</v>
-      </c>
-      <c r="AV8">
         <v>1.99</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>128272</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>202011</v>
@@ -1775,10 +1343,10 @@
         <v>8651501453</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>4122066000</v>
@@ -1787,7 +1355,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L9">
         <v>7246168</v>
@@ -1799,117 +1367,69 @@
         <v>124625</v>
       </c>
       <c r="O9">
-        <v>95.98999999999999</v>
+        <v>2.81</v>
       </c>
       <c r="P9">
-        <v>4.01</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>48.1</v>
       </c>
       <c r="R9">
-        <v>15.84</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>11.49</v>
       </c>
       <c r="U9">
-        <v>3.66</v>
+        <v>37.6</v>
       </c>
       <c r="V9">
-        <v>62.19</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>4.01</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>46.47</v>
+        <v>11.49</v>
       </c>
       <c r="AA9">
-        <v>25.53</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>22.57</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>34.79</v>
       </c>
       <c r="AE9">
-        <v>2.81</v>
+        <v>28.34</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>48.1</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>11.49</v>
-      </c>
-      <c r="AK9">
-        <v>37.6</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>11.49</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>2.81</v>
-      </c>
-      <c r="AS9">
-        <v>22.57</v>
-      </c>
-      <c r="AT9">
-        <v>34.79</v>
-      </c>
-      <c r="AU9">
-        <v>28.34</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>130384</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>202011</v>
@@ -1921,10 +1441,10 @@
         <v>2092998174</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>4122066000</v>
@@ -1933,7 +1453,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L10">
         <v>88637591</v>
@@ -1945,117 +1465,69 @@
         <v>37903</v>
       </c>
       <c r="O10">
-        <v>89.73999999999999</v>
+        <v>2.43</v>
       </c>
       <c r="P10">
-        <v>10.26</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="R10">
-        <v>29.17</v>
+        <v>31.28</v>
       </c>
       <c r="S10">
-        <v>14.07</v>
+        <v>0.72</v>
       </c>
       <c r="T10">
-        <v>18.96</v>
+        <v>2.7</v>
       </c>
       <c r="U10">
-        <v>9.69</v>
+        <v>9.4</v>
       </c>
       <c r="V10">
-        <v>17.86</v>
+        <v>24.48</v>
       </c>
       <c r="W10">
-        <v>10.26</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="X10">
-        <v>22.98</v>
+        <v>3.22</v>
       </c>
       <c r="Y10">
-        <v>49.35</v>
+        <v>0.2</v>
       </c>
       <c r="Z10">
-        <v>27.6</v>
+        <v>0.24</v>
       </c>
       <c r="AA10">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>13.16</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>47.99</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="AE10">
-        <v>2.43</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AF10">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="AG10">
-        <v>6.6</v>
-      </c>
-      <c r="AH10">
-        <v>31.28</v>
-      </c>
-      <c r="AI10">
-        <v>0.72</v>
-      </c>
-      <c r="AJ10">
-        <v>2.7</v>
-      </c>
-      <c r="AK10">
-        <v>9.4</v>
-      </c>
-      <c r="AL10">
-        <v>24.48</v>
-      </c>
-      <c r="AM10">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="AN10">
-        <v>3.22</v>
-      </c>
-      <c r="AO10">
-        <v>0.2</v>
-      </c>
-      <c r="AP10">
-        <v>0.24</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>13.16</v>
-      </c>
-      <c r="AS10">
-        <v>47.99</v>
-      </c>
-      <c r="AT10">
-        <v>29.2</v>
-      </c>
-      <c r="AU10">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="AV10">
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>140277</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>202012</v>
@@ -2067,10 +1539,10 @@
         <v>8651501453</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>4122066000</v>
@@ -2079,7 +1551,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L11">
         <v>8161249</v>
@@ -2091,117 +1563,69 @@
         <v>82551</v>
       </c>
       <c r="O11">
-        <v>92.87</v>
+        <v>34.06</v>
       </c>
       <c r="P11">
-        <v>7.13</v>
+        <v>15.27</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="R11">
-        <v>21.16</v>
+        <v>27.43</v>
       </c>
       <c r="S11">
-        <v>22.85</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>7.01</v>
+        <v>0.38</v>
       </c>
       <c r="U11">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>8.35</v>
+        <v>1.18</v>
       </c>
       <c r="W11">
-        <v>7.13</v>
+        <v>4.14</v>
       </c>
       <c r="X11">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>31.72</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>56.94</v>
+        <v>0.38</v>
       </c>
       <c r="AA11">
-        <v>8.19</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>26.61</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>64.19</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>34.06</v>
+        <v>3.51</v>
       </c>
       <c r="AF11">
-        <v>15.27</v>
-      </c>
-      <c r="AG11">
-        <v>17.55</v>
-      </c>
-      <c r="AH11">
-        <v>27.43</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0.38</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>1.18</v>
-      </c>
-      <c r="AM11">
-        <v>4.14</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0.38</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>26.61</v>
-      </c>
-      <c r="AS11">
-        <v>64.19</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>3.51</v>
-      </c>
-      <c r="AV11">
         <v>5.32</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>142424</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>202012</v>
@@ -2213,10 +1637,10 @@
         <v>2092998174</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I12">
         <v>4122066000</v>
@@ -2225,7 +1649,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L12">
         <v>169138327</v>
@@ -2237,117 +1661,69 @@
         <v>58694</v>
       </c>
       <c r="O12">
-        <v>79.45999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="P12">
-        <v>20.54</v>
+        <v>12.96</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="R12">
-        <v>16.1</v>
+        <v>6.4</v>
       </c>
       <c r="S12">
-        <v>20.68</v>
+        <v>9.25</v>
       </c>
       <c r="T12">
-        <v>17.62</v>
+        <v>3.42</v>
       </c>
       <c r="U12">
-        <v>6.93</v>
+        <v>10.1</v>
       </c>
       <c r="V12">
-        <v>18.12</v>
+        <v>18.14</v>
       </c>
       <c r="W12">
-        <v>20.54</v>
+        <v>25.39</v>
       </c>
       <c r="X12">
-        <v>21.22</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y12">
-        <v>47.23</v>
+        <v>0.47</v>
       </c>
       <c r="Z12">
-        <v>28.68</v>
+        <v>0.44</v>
       </c>
       <c r="AA12">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>10.65</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>49.03</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="AE12">
-        <v>1.75</v>
+        <v>12.42</v>
       </c>
       <c r="AF12">
-        <v>12.96</v>
-      </c>
-      <c r="AG12">
-        <v>4.28</v>
-      </c>
-      <c r="AH12">
-        <v>6.4</v>
-      </c>
-      <c r="AI12">
-        <v>9.25</v>
-      </c>
-      <c r="AJ12">
-        <v>3.42</v>
-      </c>
-      <c r="AK12">
-        <v>10.1</v>
-      </c>
-      <c r="AL12">
-        <v>18.14</v>
-      </c>
-      <c r="AM12">
-        <v>25.39</v>
-      </c>
-      <c r="AN12">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AO12">
-        <v>0.47</v>
-      </c>
-      <c r="AP12">
-        <v>0.44</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>10.65</v>
-      </c>
-      <c r="AS12">
-        <v>49.03</v>
-      </c>
-      <c r="AT12">
-        <v>11.7</v>
-      </c>
-      <c r="AU12">
-        <v>12.42</v>
-      </c>
-      <c r="AV12">
         <v>15.28</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>152280</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>202101</v>
@@ -2359,10 +1735,10 @@
         <v>8651501453</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I13">
         <v>4122066000</v>
@@ -2371,7 +1747,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L13">
         <v>7470115</v>
@@ -2383,117 +1759,69 @@
         <v>73421</v>
       </c>
       <c r="O13">
-        <v>63.5</v>
+        <v>2.81</v>
       </c>
       <c r="P13">
-        <v>36.5</v>
+        <v>15.62</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>39.15</v>
       </c>
       <c r="R13">
-        <v>6.43</v>
+        <v>40.69</v>
       </c>
       <c r="S13">
-        <v>25.05</v>
+        <v>0.44</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>30.26</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1.76</v>
+        <v>0.42</v>
       </c>
       <c r="W13">
-        <v>36.5</v>
+        <v>0.67</v>
       </c>
       <c r="X13">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="Y13">
-        <v>65.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>31.32</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>41.15</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>53.98</v>
       </c>
       <c r="AE13">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>15.62</v>
-      </c>
-      <c r="AG13">
-        <v>39.15</v>
-      </c>
-      <c r="AH13">
-        <v>40.69</v>
-      </c>
-      <c r="AI13">
-        <v>0.44</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
         <v>0.42</v>
       </c>
-      <c r="AM13">
-        <v>0.67</v>
-      </c>
-      <c r="AN13">
-        <v>0.21</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>4.45</v>
-      </c>
-      <c r="AS13">
-        <v>41.15</v>
-      </c>
-      <c r="AT13">
-        <v>53.98</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0.42</v>
-      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>154465</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>202101</v>
@@ -2505,10 +1833,10 @@
         <v>2092998174</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>4122066000</v>
@@ -2517,7 +1845,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L14">
         <v>155483769</v>
@@ -2529,117 +1857,69 @@
         <v>65010</v>
       </c>
       <c r="O14">
-        <v>88.51000000000001</v>
+        <v>4.16</v>
       </c>
       <c r="P14">
-        <v>11.49</v>
+        <v>5.5</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>12.69</v>
       </c>
       <c r="R14">
-        <v>18.81</v>
+        <v>5.75</v>
       </c>
       <c r="S14">
-        <v>17.89</v>
+        <v>29.3</v>
       </c>
       <c r="T14">
-        <v>12.34</v>
+        <v>3.75</v>
       </c>
       <c r="U14">
-        <v>13.14</v>
+        <v>11.05</v>
       </c>
       <c r="V14">
-        <v>26.34</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="W14">
-        <v>11.49</v>
+        <v>11.18</v>
       </c>
       <c r="X14">
-        <v>25.58</v>
+        <v>7.01</v>
       </c>
       <c r="Y14">
-        <v>33.11</v>
+        <v>0.36</v>
       </c>
       <c r="Z14">
-        <v>37.28</v>
+        <v>0.19</v>
       </c>
       <c r="AA14">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>14.28</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>62.93</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>8.91</v>
       </c>
       <c r="AE14">
-        <v>4.16</v>
+        <v>9.32</v>
       </c>
       <c r="AF14">
-        <v>5.5</v>
-      </c>
-      <c r="AG14">
-        <v>12.69</v>
-      </c>
-      <c r="AH14">
-        <v>5.75</v>
-      </c>
-      <c r="AI14">
-        <v>29.3</v>
-      </c>
-      <c r="AJ14">
-        <v>3.75</v>
-      </c>
-      <c r="AK14">
-        <v>11.05</v>
-      </c>
-      <c r="AL14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="AM14">
-        <v>11.18</v>
-      </c>
-      <c r="AN14">
-        <v>7.01</v>
-      </c>
-      <c r="AO14">
-        <v>0.36</v>
-      </c>
-      <c r="AP14">
-        <v>0.19</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>14.28</v>
-      </c>
-      <c r="AS14">
-        <v>62.93</v>
-      </c>
-      <c r="AT14">
-        <v>8.91</v>
-      </c>
-      <c r="AU14">
-        <v>9.32</v>
-      </c>
-      <c r="AV14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>164318</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>202102</v>
@@ -2651,10 +1931,10 @@
         <v>8651501453</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I15">
         <v>4122066000</v>
@@ -2663,7 +1943,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L15">
         <v>9094596</v>
@@ -2675,117 +1955,69 @@
         <v>94751</v>
       </c>
       <c r="O15">
-        <v>98.22</v>
+        <v>3.04</v>
       </c>
       <c r="P15">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>78.16</v>
       </c>
       <c r="R15">
-        <v>2.05</v>
+        <v>4.59</v>
       </c>
       <c r="S15">
-        <v>61.38</v>
+        <v>0.29</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>28.14</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>6.64</v>
       </c>
       <c r="W15">
-        <v>1.78</v>
+        <v>7.28</v>
       </c>
       <c r="X15">
-        <v>5.51</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>48.1</v>
+        <v>5.22</v>
       </c>
       <c r="Z15">
-        <v>15.55</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>30.83</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>58.71</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>27.15</v>
       </c>
       <c r="AE15">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>78.16</v>
-      </c>
-      <c r="AH15">
-        <v>4.59</v>
-      </c>
-      <c r="AI15">
-        <v>0.29</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>6.64</v>
-      </c>
-      <c r="AM15">
-        <v>7.28</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
         <v>5.22</v>
       </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>3.69</v>
-      </c>
-      <c r="AS15">
-        <v>58.71</v>
-      </c>
-      <c r="AT15">
-        <v>27.15</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>5.22</v>
-      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>166537</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>202102</v>
@@ -2797,10 +2029,10 @@
         <v>2092998174</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I16">
         <v>4122066000</v>
@@ -2809,7 +2041,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L16">
         <v>123476633</v>
@@ -2821,117 +2053,69 @@
         <v>56133</v>
       </c>
       <c r="O16">
-        <v>88.45</v>
+        <v>3.71</v>
       </c>
       <c r="P16">
-        <v>11.55</v>
+        <v>18.21</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>9.93</v>
       </c>
       <c r="R16">
-        <v>12.4</v>
+        <v>11.01</v>
       </c>
       <c r="S16">
-        <v>8.41</v>
+        <v>3.4</v>
       </c>
       <c r="T16">
-        <v>33.25</v>
+        <v>2.32</v>
       </c>
       <c r="U16">
-        <v>13.35</v>
+        <v>13.79</v>
       </c>
       <c r="V16">
-        <v>21.03</v>
+        <v>14.12</v>
       </c>
       <c r="W16">
-        <v>11.55</v>
+        <v>17.1</v>
       </c>
       <c r="X16">
-        <v>23.59</v>
+        <v>6.42</v>
       </c>
       <c r="Y16">
-        <v>54.73</v>
+        <v>0.1</v>
       </c>
       <c r="Z16">
-        <v>19.04</v>
+        <v>1.36</v>
       </c>
       <c r="AA16">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>11.66</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>49.77</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>26.33</v>
       </c>
       <c r="AE16">
-        <v>3.71</v>
+        <v>7.91</v>
       </c>
       <c r="AF16">
-        <v>18.21</v>
-      </c>
-      <c r="AG16">
-        <v>9.93</v>
-      </c>
-      <c r="AH16">
-        <v>11.01</v>
-      </c>
-      <c r="AI16">
-        <v>3.4</v>
-      </c>
-      <c r="AJ16">
-        <v>2.32</v>
-      </c>
-      <c r="AK16">
-        <v>13.79</v>
-      </c>
-      <c r="AL16">
-        <v>14.12</v>
-      </c>
-      <c r="AM16">
-        <v>17.1</v>
-      </c>
-      <c r="AN16">
-        <v>6.42</v>
-      </c>
-      <c r="AO16">
-        <v>0.1</v>
-      </c>
-      <c r="AP16">
-        <v>1.36</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>11.66</v>
-      </c>
-      <c r="AS16">
-        <v>49.77</v>
-      </c>
-      <c r="AT16">
-        <v>26.33</v>
-      </c>
-      <c r="AU16">
-        <v>7.91</v>
-      </c>
-      <c r="AV16">
         <v>2.86</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>176390</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>202103</v>
@@ -2943,10 +2127,10 @@
         <v>8651501453</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I17">
         <v>4122066000</v>
@@ -2955,7 +2139,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L17">
         <v>5164355</v>
@@ -2967,117 +2151,69 @@
         <v>80221</v>
       </c>
       <c r="O17">
-        <v>65.73999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="P17">
-        <v>34.26</v>
+        <v>0.45</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>26.29</v>
       </c>
       <c r="R17">
-        <v>25.45</v>
+        <v>34.18</v>
       </c>
       <c r="S17">
-        <v>8.039999999999999</v>
+        <v>19</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>13.26</v>
+        <v>5.03</v>
       </c>
       <c r="W17">
-        <v>34.26</v>
+        <v>8.16</v>
       </c>
       <c r="X17">
-        <v>15.41</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>69.47</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>15.12</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>6.89</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>64.44</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>28.66</v>
       </c>
       <c r="AE17">
-        <v>6.89</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>0.45</v>
-      </c>
-      <c r="AG17">
-        <v>26.29</v>
-      </c>
-      <c r="AH17">
-        <v>34.18</v>
-      </c>
-      <c r="AI17">
-        <v>19</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>5.03</v>
-      </c>
-      <c r="AM17">
-        <v>8.16</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>6.89</v>
-      </c>
-      <c r="AS17">
-        <v>64.44</v>
-      </c>
-      <c r="AT17">
-        <v>28.66</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>178670</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>202103</v>
@@ -3089,10 +2225,10 @@
         <v>2092998174</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I18">
         <v>4122066000</v>
@@ -3101,7 +2237,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L18">
         <v>138076574</v>
@@ -3113,117 +2249,69 @@
         <v>42619</v>
       </c>
       <c r="O18">
-        <v>79.37</v>
+        <v>2.92</v>
       </c>
       <c r="P18">
-        <v>20.63</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>15.99</v>
       </c>
       <c r="R18">
-        <v>12.96</v>
+        <v>8.94</v>
       </c>
       <c r="S18">
-        <v>29.72</v>
+        <v>6.28</v>
       </c>
       <c r="T18">
-        <v>10.7</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>6.68</v>
+        <v>10.58</v>
       </c>
       <c r="V18">
-        <v>19.31</v>
+        <v>25</v>
       </c>
       <c r="W18">
-        <v>20.63</v>
+        <v>15.95</v>
       </c>
       <c r="X18">
-        <v>41.45</v>
+        <v>3.4</v>
       </c>
       <c r="Y18">
-        <v>41.53</v>
+        <v>0.64</v>
       </c>
       <c r="Z18">
-        <v>15.89</v>
+        <v>0.9</v>
       </c>
       <c r="AA18">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>48.73</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>24.51</v>
       </c>
       <c r="AE18">
-        <v>2.92</v>
+        <v>6.08</v>
       </c>
       <c r="AF18">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG18">
-        <v>15.99</v>
-      </c>
-      <c r="AH18">
-        <v>8.94</v>
-      </c>
-      <c r="AI18">
-        <v>6.28</v>
-      </c>
-      <c r="AJ18">
-        <v>2.25</v>
-      </c>
-      <c r="AK18">
-        <v>10.58</v>
-      </c>
-      <c r="AL18">
-        <v>25</v>
-      </c>
-      <c r="AM18">
-        <v>15.95</v>
-      </c>
-      <c r="AN18">
-        <v>3.4</v>
-      </c>
-      <c r="AO18">
-        <v>0.64</v>
-      </c>
-      <c r="AP18">
-        <v>0.9</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>13.1</v>
-      </c>
-      <c r="AS18">
-        <v>48.73</v>
-      </c>
-      <c r="AT18">
-        <v>24.51</v>
-      </c>
-      <c r="AU18">
-        <v>6.08</v>
-      </c>
-      <c r="AV18">
         <v>6.04</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>190825</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>202104</v>
@@ -3235,10 +2323,10 @@
         <v>2092998174</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I19">
         <v>4122066000</v>
@@ -3247,7 +2335,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L19">
         <v>59686261</v>
@@ -3259,117 +2347,69 @@
         <v>22350</v>
       </c>
       <c r="O19">
-        <v>88.06</v>
+        <v>2.86</v>
       </c>
       <c r="P19">
-        <v>11.94</v>
+        <v>17.44</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="R19">
-        <v>16.76</v>
+        <v>9.82</v>
       </c>
       <c r="S19">
-        <v>20.51</v>
+        <v>7.24</v>
       </c>
       <c r="T19">
-        <v>10.38</v>
+        <v>7.53</v>
       </c>
       <c r="U19">
-        <v>19.78</v>
+        <v>16.16</v>
       </c>
       <c r="V19">
-        <v>20.63</v>
+        <v>15.69</v>
       </c>
       <c r="W19">
-        <v>11.94</v>
+        <v>7.88</v>
       </c>
       <c r="X19">
-        <v>30.75</v>
+        <v>6.73</v>
       </c>
       <c r="Y19">
-        <v>41.96</v>
+        <v>1.1</v>
       </c>
       <c r="Z19">
-        <v>26.47</v>
+        <v>1.53</v>
       </c>
       <c r="AA19">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>20.22</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>50.61</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>14.94</v>
       </c>
       <c r="AE19">
-        <v>2.86</v>
+        <v>11.03</v>
       </c>
       <c r="AF19">
-        <v>17.44</v>
-      </c>
-      <c r="AG19">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="AH19">
-        <v>9.82</v>
-      </c>
-      <c r="AI19">
-        <v>7.24</v>
-      </c>
-      <c r="AJ19">
-        <v>7.53</v>
-      </c>
-      <c r="AK19">
-        <v>16.16</v>
-      </c>
-      <c r="AL19">
-        <v>15.69</v>
-      </c>
-      <c r="AM19">
-        <v>7.88</v>
-      </c>
-      <c r="AN19">
-        <v>6.73</v>
-      </c>
-      <c r="AO19">
-        <v>1.1</v>
-      </c>
-      <c r="AP19">
-        <v>1.53</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>20.22</v>
-      </c>
-      <c r="AS19">
-        <v>50.61</v>
-      </c>
-      <c r="AT19">
-        <v>14.94</v>
-      </c>
-      <c r="AU19">
-        <v>11.03</v>
-      </c>
-      <c r="AV19">
         <v>0.5600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>201304</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>202105</v>
@@ -3381,10 +2421,10 @@
         <v>7413301184</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I20">
         <v>4122066000</v>
@@ -3393,7 +2433,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L20">
         <v>31194218</v>
@@ -3405,117 +2445,69 @@
         <v>152465</v>
       </c>
       <c r="O20">
-        <v>81.84999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="P20">
-        <v>18.15</v>
+        <v>19.18</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>25.93</v>
       </c>
       <c r="R20">
-        <v>54.18</v>
+        <v>43.12</v>
       </c>
       <c r="S20">
-        <v>23.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T20">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="U20">
-        <v>0.41</v>
+        <v>1.57</v>
       </c>
       <c r="V20">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="W20">
-        <v>18.15</v>
+        <v>0.16</v>
       </c>
       <c r="X20">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>71.58</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>26.12</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>32.44</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>64.84</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AE20">
+        <v>0.35</v>
+      </c>
+      <c r="AF20">
         <v>0.08</v>
       </c>
-      <c r="AF20">
-        <v>19.18</v>
-      </c>
-      <c r="AG20">
-        <v>25.93</v>
-      </c>
-      <c r="AH20">
-        <v>43.12</v>
-      </c>
-      <c r="AI20">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AJ20">
-        <v>0.25</v>
-      </c>
-      <c r="AK20">
-        <v>1.57</v>
-      </c>
-      <c r="AL20">
-        <v>1.5</v>
-      </c>
-      <c r="AM20">
-        <v>0.16</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>32.44</v>
-      </c>
-      <c r="AS20">
-        <v>64.84</v>
-      </c>
-      <c r="AT20">
-        <v>2.29</v>
-      </c>
-      <c r="AU20">
-        <v>0.35</v>
-      </c>
-      <c r="AV20">
-        <v>0.08</v>
-      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>203019</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>202105</v>
@@ -3527,10 +2519,10 @@
         <v>2092998174</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I21">
         <v>4122066000</v>
@@ -3539,7 +2531,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L21">
         <v>145295175</v>
@@ -3551,117 +2543,69 @@
         <v>48636</v>
       </c>
       <c r="O21">
-        <v>92.42</v>
+        <v>2.72</v>
       </c>
       <c r="P21">
-        <v>7.58</v>
+        <v>8.65</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="R21">
-        <v>32.99</v>
+        <v>3.03</v>
       </c>
       <c r="S21">
-        <v>22.03</v>
+        <v>3.9</v>
       </c>
       <c r="T21">
-        <v>3.39</v>
+        <v>1.78</v>
       </c>
       <c r="U21">
-        <v>25.21</v>
+        <v>13.34</v>
       </c>
       <c r="V21">
-        <v>8.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="W21">
-        <v>7.58</v>
+        <v>32.05</v>
       </c>
       <c r="X21">
-        <v>37.16</v>
+        <v>9.58</v>
       </c>
       <c r="Y21">
-        <v>29.68</v>
+        <v>0.76</v>
       </c>
       <c r="Z21">
-        <v>31.51</v>
+        <v>0.53</v>
       </c>
       <c r="AA21">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>13.67</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>30.95</v>
       </c>
       <c r="AE21">
-        <v>2.72</v>
+        <v>5.22</v>
       </c>
       <c r="AF21">
-        <v>8.65</v>
-      </c>
-      <c r="AG21">
-        <v>5.95</v>
-      </c>
-      <c r="AH21">
-        <v>3.03</v>
-      </c>
-      <c r="AI21">
-        <v>3.9</v>
-      </c>
-      <c r="AJ21">
-        <v>1.78</v>
-      </c>
-      <c r="AK21">
-        <v>13.34</v>
-      </c>
-      <c r="AL21">
-        <v>19</v>
-      </c>
-      <c r="AM21">
-        <v>32.05</v>
-      </c>
-      <c r="AN21">
-        <v>9.58</v>
-      </c>
-      <c r="AO21">
-        <v>0.76</v>
-      </c>
-      <c r="AP21">
-        <v>0.53</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>13.67</v>
-      </c>
-      <c r="AS21">
-        <v>48.5</v>
-      </c>
-      <c r="AT21">
-        <v>30.95</v>
-      </c>
-      <c r="AU21">
-        <v>5.22</v>
-      </c>
-      <c r="AV21">
         <v>0.36</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>213500</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>202106</v>
@@ -3673,10 +2617,10 @@
         <v>7413301184</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I22">
         <v>4122066000</v>
@@ -3685,7 +2629,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L22">
         <v>26434958</v>
@@ -3697,117 +2641,69 @@
         <v>124767</v>
       </c>
       <c r="O22">
-        <v>94.83</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>5.17</v>
+        <v>1.06</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>52.1</v>
       </c>
       <c r="R22">
-        <v>3.3</v>
+        <v>28.92</v>
       </c>
       <c r="S22">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="T22">
-        <v>81.95999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="U22">
-        <v>0.71</v>
+        <v>1.11</v>
       </c>
       <c r="V22">
-        <v>8.69</v>
+        <v>15.1</v>
       </c>
       <c r="W22">
-        <v>5.17</v>
+        <v>0.19</v>
       </c>
       <c r="X22">
-        <v>4.77</v>
+        <v>0.2</v>
       </c>
       <c r="Y22">
-        <v>77.54000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Z22">
-        <v>17.69</v>
+        <v>0.09</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>60.54</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="AF22">
-        <v>1.06</v>
-      </c>
-      <c r="AG22">
-        <v>52.1</v>
-      </c>
-      <c r="AH22">
-        <v>28.92</v>
-      </c>
-      <c r="AI22">
-        <v>0.03</v>
-      </c>
-      <c r="AJ22">
-        <v>1.3</v>
-      </c>
-      <c r="AK22">
-        <v>1.11</v>
-      </c>
-      <c r="AL22">
-        <v>15.1</v>
-      </c>
-      <c r="AM22">
-        <v>0.19</v>
-      </c>
-      <c r="AN22">
-        <v>0.2</v>
-      </c>
-      <c r="AO22">
-        <v>0.09</v>
-      </c>
-      <c r="AP22">
-        <v>0.09</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>22.3</v>
-      </c>
-      <c r="AS22">
-        <v>60.54</v>
-      </c>
-      <c r="AT22">
-        <v>12.8</v>
-      </c>
-      <c r="AU22">
-        <v>3.33</v>
-      </c>
-      <c r="AV22">
         <v>0.85</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>215249</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>202106</v>
@@ -3819,10 +2715,10 @@
         <v>2092998174</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I23">
         <v>4122066000</v>
@@ -3831,7 +2727,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L23">
         <v>72520994</v>
@@ -3843,117 +2739,69 @@
         <v>33539</v>
       </c>
       <c r="O23">
-        <v>71.61</v>
+        <v>4.02</v>
       </c>
       <c r="P23">
-        <v>28.39</v>
+        <v>12.78</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="R23">
-        <v>9.1</v>
+        <v>8.42</v>
       </c>
       <c r="S23">
-        <v>15.7</v>
+        <v>13.67</v>
       </c>
       <c r="T23">
-        <v>18.17</v>
+        <v>2.63</v>
       </c>
       <c r="U23">
-        <v>14.83</v>
+        <v>13.71</v>
       </c>
       <c r="V23">
-        <v>13.81</v>
+        <v>11.4</v>
       </c>
       <c r="W23">
-        <v>28.39</v>
+        <v>17.86</v>
       </c>
       <c r="X23">
-        <v>53.34</v>
+        <v>7.57</v>
       </c>
       <c r="Y23">
-        <v>25.39</v>
+        <v>1.42</v>
       </c>
       <c r="Z23">
-        <v>20.46</v>
+        <v>1.01</v>
       </c>
       <c r="AA23">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>23.19</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>43.24</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>13.51</v>
       </c>
       <c r="AE23">
-        <v>4.02</v>
+        <v>15.86</v>
       </c>
       <c r="AF23">
-        <v>12.78</v>
-      </c>
-      <c r="AG23">
-        <v>7.92</v>
-      </c>
-      <c r="AH23">
-        <v>8.42</v>
-      </c>
-      <c r="AI23">
-        <v>13.67</v>
-      </c>
-      <c r="AJ23">
-        <v>2.63</v>
-      </c>
-      <c r="AK23">
-        <v>13.71</v>
-      </c>
-      <c r="AL23">
-        <v>11.4</v>
-      </c>
-      <c r="AM23">
-        <v>17.86</v>
-      </c>
-      <c r="AN23">
-        <v>7.57</v>
-      </c>
-      <c r="AO23">
-        <v>1.42</v>
-      </c>
-      <c r="AP23">
-        <v>1.01</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>23.19</v>
-      </c>
-      <c r="AS23">
-        <v>43.24</v>
-      </c>
-      <c r="AT23">
-        <v>13.51</v>
-      </c>
-      <c r="AU23">
-        <v>15.86</v>
-      </c>
-      <c r="AV23">
         <v>1.75</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>225727</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>202107</v>
@@ -3965,10 +2813,10 @@
         <v>7413301184</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I24">
         <v>4122066000</v>
@@ -3977,7 +2825,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L24">
         <v>17601769</v>
@@ -3989,117 +2837,69 @@
         <v>73931</v>
       </c>
       <c r="O24">
-        <v>98.33</v>
+        <v>2.54</v>
       </c>
       <c r="P24">
-        <v>1.67</v>
+        <v>0.39</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>37.63</v>
       </c>
       <c r="R24">
-        <v>17.72</v>
+        <v>30.92</v>
       </c>
       <c r="S24">
-        <v>2.88</v>
+        <v>7.95</v>
       </c>
       <c r="T24">
-        <v>34.09</v>
+        <v>0.42</v>
       </c>
       <c r="U24">
-        <v>30.57</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="V24">
-        <v>13.07</v>
+        <v>10.85</v>
       </c>
       <c r="W24">
-        <v>1.67</v>
+        <v>0.46</v>
       </c>
       <c r="X24">
-        <v>1.98</v>
+        <v>0.22</v>
       </c>
       <c r="Y24">
-        <v>54.61</v>
+        <v>0.14</v>
       </c>
       <c r="Z24">
-        <v>43.41</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>73.48</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>23.07</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AE24">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="AF24">
-        <v>0.39</v>
-      </c>
-      <c r="AG24">
-        <v>37.63</v>
-      </c>
-      <c r="AH24">
-        <v>30.92</v>
-      </c>
-      <c r="AI24">
-        <v>7.95</v>
-      </c>
-      <c r="AJ24">
-        <v>0.42</v>
-      </c>
-      <c r="AK24">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="AL24">
-        <v>10.85</v>
-      </c>
-      <c r="AM24">
-        <v>0.46</v>
-      </c>
-      <c r="AN24">
-        <v>0.22</v>
-      </c>
-      <c r="AO24">
-        <v>0.14</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>73.48</v>
-      </c>
-      <c r="AS24">
-        <v>23.07</v>
-      </c>
-      <c r="AT24">
-        <v>1.99</v>
-      </c>
-      <c r="AU24">
-        <v>1.01</v>
-      </c>
-      <c r="AV24">
         <v>0.31</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>227498</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>202107</v>
@@ -4111,10 +2911,10 @@
         <v>2092998174</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I25">
         <v>4122066000</v>
@@ -4123,7 +2923,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L25">
         <v>17815349</v>
@@ -4135,117 +2935,69 @@
         <v>21218</v>
       </c>
       <c r="O25">
-        <v>89.39</v>
+        <v>1.95</v>
       </c>
       <c r="P25">
-        <v>10.61</v>
+        <v>17.22</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>14.69</v>
       </c>
       <c r="R25">
-        <v>27.8</v>
+        <v>3.89</v>
       </c>
       <c r="S25">
-        <v>8.77</v>
+        <v>10.4</v>
       </c>
       <c r="T25">
-        <v>9.210000000000001</v>
+        <v>6.21</v>
       </c>
       <c r="U25">
-        <v>19.25</v>
+        <v>10.81</v>
       </c>
       <c r="V25">
-        <v>24.35</v>
+        <v>13.45</v>
       </c>
       <c r="W25">
-        <v>10.61</v>
+        <v>18.42</v>
       </c>
       <c r="X25">
-        <v>21.09</v>
+        <v>2.97</v>
       </c>
       <c r="Y25">
-        <v>48.62</v>
+        <v>0.78</v>
       </c>
       <c r="Z25">
-        <v>28.33</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>19.52</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>34.04</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>28.94</v>
       </c>
       <c r="AE25">
-        <v>1.95</v>
+        <v>6.54</v>
       </c>
       <c r="AF25">
-        <v>17.22</v>
-      </c>
-      <c r="AG25">
-        <v>14.69</v>
-      </c>
-      <c r="AH25">
-        <v>3.89</v>
-      </c>
-      <c r="AI25">
-        <v>10.4</v>
-      </c>
-      <c r="AJ25">
-        <v>6.21</v>
-      </c>
-      <c r="AK25">
-        <v>10.81</v>
-      </c>
-      <c r="AL25">
-        <v>13.45</v>
-      </c>
-      <c r="AM25">
-        <v>18.42</v>
-      </c>
-      <c r="AN25">
-        <v>2.97</v>
-      </c>
-      <c r="AO25">
-        <v>0.78</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>19.52</v>
-      </c>
-      <c r="AS25">
-        <v>34.04</v>
-      </c>
-      <c r="AT25">
-        <v>28.94</v>
-      </c>
-      <c r="AU25">
-        <v>6.54</v>
-      </c>
-      <c r="AV25">
         <v>10.19</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>237995</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>202108</v>
@@ -4257,10 +3009,10 @@
         <v>7413301184</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I26">
         <v>4122066000</v>
@@ -4269,7 +3021,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L26">
         <v>8404664</v>
@@ -4281,117 +3033,69 @@
         <v>29269</v>
       </c>
       <c r="O26">
-        <v>82.51000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="P26">
-        <v>17.49</v>
+        <v>13.32</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="R26">
-        <v>36.26</v>
+        <v>7.58</v>
       </c>
       <c r="S26">
-        <v>22.63</v>
+        <v>23.88</v>
       </c>
       <c r="T26">
-        <v>9.77</v>
+        <v>0.97</v>
       </c>
       <c r="U26">
-        <v>3.57</v>
+        <v>10.2</v>
       </c>
       <c r="V26">
-        <v>10.28</v>
+        <v>12.73</v>
       </c>
       <c r="W26">
-        <v>17.49</v>
+        <v>17.2</v>
       </c>
       <c r="X26">
-        <v>16.44</v>
+        <v>8.6</v>
       </c>
       <c r="Y26">
-        <v>42.03</v>
+        <v>0.3</v>
       </c>
       <c r="Z26">
-        <v>41.53</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>30.79</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>45.06</v>
       </c>
       <c r="AE26">
-        <v>0.3</v>
+        <v>13.91</v>
       </c>
       <c r="AF26">
-        <v>13.32</v>
-      </c>
-      <c r="AG26">
-        <v>5.22</v>
-      </c>
-      <c r="AH26">
-        <v>7.58</v>
-      </c>
-      <c r="AI26">
-        <v>23.88</v>
-      </c>
-      <c r="AJ26">
-        <v>0.97</v>
-      </c>
-      <c r="AK26">
-        <v>10.2</v>
-      </c>
-      <c r="AL26">
-        <v>12.73</v>
-      </c>
-      <c r="AM26">
-        <v>17.2</v>
-      </c>
-      <c r="AN26">
-        <v>8.6</v>
-      </c>
-      <c r="AO26">
-        <v>0.3</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>7.73</v>
-      </c>
-      <c r="AS26">
-        <v>30.79</v>
-      </c>
-      <c r="AT26">
-        <v>45.06</v>
-      </c>
-      <c r="AU26">
-        <v>13.91</v>
-      </c>
-      <c r="AV26">
         <v>2.21</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>239783</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>202108</v>
@@ -4403,10 +3107,10 @@
         <v>2092998174</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I27">
         <v>4122066000</v>
@@ -4415,7 +3119,7 @@
         <v>1584.545454545455</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L27">
         <v>431314</v>
@@ -4427,117 +3131,69 @@
         <v>11343</v>
       </c>
       <c r="O27">
-        <v>61.08</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>38.92</v>
+        <v>6.05</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>27.08</v>
       </c>
       <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>21.54</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>39.29</v>
+      </c>
+      <c r="W27">
         <v>6.05</v>
       </c>
-      <c r="S27">
-        <v>32.87</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>22.17</v>
-      </c>
-      <c r="W27">
-        <v>38.92</v>
-      </c>
       <c r="X27">
-        <v>28.34</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>71.66</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>21.54</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>27.08</v>
       </c>
       <c r="AC27">
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>23.43</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>27.96</v>
       </c>
       <c r="AF27">
-        <v>6.05</v>
-      </c>
-      <c r="AG27">
-        <v>27.08</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>21.54</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>39.29</v>
-      </c>
-      <c r="AM27">
-        <v>6.05</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>21.54</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>27.08</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>23.43</v>
-      </c>
-      <c r="AU27">
-        <v>27.96</v>
-      </c>
-      <c r="AV27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>250298</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>202109</v>
@@ -4549,10 +3205,10 @@
         <v>7413301184</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I28">
         <v>4122066000</v>
@@ -4561,7 +3217,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K28" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L28">
         <v>12140160</v>
@@ -4573,117 +3229,69 @@
         <v>49732</v>
       </c>
       <c r="O28">
-        <v>68.97</v>
+        <v>1.34</v>
       </c>
       <c r="P28">
-        <v>31.03</v>
+        <v>27.7</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>22.53</v>
       </c>
       <c r="R28">
-        <v>3.48</v>
+        <v>1.43</v>
       </c>
       <c r="S28">
-        <v>2.26</v>
+        <v>0.84</v>
       </c>
       <c r="T28">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>23.95</v>
+        <v>1.3</v>
       </c>
       <c r="V28">
-        <v>38.18</v>
+        <v>3.56</v>
       </c>
       <c r="W28">
-        <v>31.03</v>
+        <v>2.79</v>
       </c>
       <c r="X28">
-        <v>5.62</v>
+        <v>38.51</v>
       </c>
       <c r="Y28">
-        <v>34.88</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>24.95</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>34.56</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>33.25</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AE28">
-        <v>1.34</v>
+        <v>60.16</v>
       </c>
       <c r="AF28">
-        <v>27.7</v>
-      </c>
-      <c r="AG28">
-        <v>22.53</v>
-      </c>
-      <c r="AH28">
-        <v>1.43</v>
-      </c>
-      <c r="AI28">
-        <v>0.84</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>1.3</v>
-      </c>
-      <c r="AL28">
-        <v>3.56</v>
-      </c>
-      <c r="AM28">
-        <v>2.79</v>
-      </c>
-      <c r="AN28">
-        <v>38.51</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>1.59</v>
-      </c>
-      <c r="AS28">
-        <v>33.25</v>
-      </c>
-      <c r="AT28">
-        <v>3.4</v>
-      </c>
-      <c r="AU28">
-        <v>60.16</v>
-      </c>
-      <c r="AV28">
         <v>1.6</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>262643</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>202110</v>
@@ -4695,10 +3303,10 @@
         <v>7413301184</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I29">
         <v>4122066000</v>
@@ -4707,7 +3315,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K29" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L29">
         <v>13086000</v>
@@ -4719,117 +3327,69 @@
         <v>63415</v>
       </c>
       <c r="O29">
-        <v>45.73</v>
+        <v>7.9</v>
       </c>
       <c r="P29">
-        <v>54.27</v>
+        <v>25.91</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>35.86</v>
       </c>
       <c r="R29">
-        <v>14.77</v>
+        <v>7.47</v>
       </c>
       <c r="S29">
-        <v>2.14</v>
+        <v>0.14</v>
       </c>
       <c r="T29">
-        <v>5.9</v>
+        <v>1.39</v>
       </c>
       <c r="U29">
-        <v>25.15</v>
+        <v>0.43</v>
       </c>
       <c r="V29">
-        <v>9.83</v>
+        <v>3.06</v>
       </c>
       <c r="W29">
-        <v>42.21</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>14.65</v>
+        <v>17.83</v>
       </c>
       <c r="Y29">
-        <v>60.16</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>25.19</v>
+        <v>6.52</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>11.85</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>38.99</v>
       </c>
       <c r="AE29">
-        <v>7.9</v>
+        <v>24.72</v>
       </c>
       <c r="AF29">
-        <v>25.91</v>
-      </c>
-      <c r="AG29">
-        <v>35.86</v>
-      </c>
-      <c r="AH29">
-        <v>7.47</v>
-      </c>
-      <c r="AI29">
-        <v>0.14</v>
-      </c>
-      <c r="AJ29">
-        <v>1.39</v>
-      </c>
-      <c r="AK29">
-        <v>0.43</v>
-      </c>
-      <c r="AL29">
-        <v>3.06</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>17.83</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>6.52</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>16.29</v>
-      </c>
-      <c r="AS29">
-        <v>11.85</v>
-      </c>
-      <c r="AT29">
-        <v>38.99</v>
-      </c>
-      <c r="AU29">
-        <v>24.72</v>
-      </c>
-      <c r="AV29">
         <v>1.64</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>275017</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>202111</v>
@@ -4841,10 +3401,10 @@
         <v>7413301184</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I30">
         <v>4122066000</v>
@@ -4853,7 +3413,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K30" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L30">
         <v>6151055</v>
@@ -4865,117 +3425,69 @@
         <v>42748</v>
       </c>
       <c r="O30">
-        <v>31.66</v>
+        <v>0.46</v>
       </c>
       <c r="P30">
-        <v>68.34</v>
+        <v>18.04</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>44.52</v>
       </c>
       <c r="R30">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>2.84</v>
+        <v>0.55</v>
       </c>
       <c r="T30">
-        <v>5.76</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>20.04</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>1.07</v>
+        <v>35.82</v>
       </c>
       <c r="W30">
-        <v>68.34</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>21.38</v>
+        <v>0.61</v>
       </c>
       <c r="Y30">
-        <v>73.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>5.11</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="AE30">
-        <v>0.46</v>
+        <v>2.11</v>
       </c>
       <c r="AF30">
-        <v>18.04</v>
-      </c>
-      <c r="AG30">
-        <v>44.52</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0.55</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>35.82</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>0.61</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0.6</v>
-      </c>
-      <c r="AS30">
-        <v>23.1</v>
-      </c>
-      <c r="AT30">
-        <v>73.79000000000001</v>
-      </c>
-      <c r="AU30">
-        <v>2.11</v>
-      </c>
-      <c r="AV30">
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>287417</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>202112</v>
@@ -4987,10 +3499,10 @@
         <v>7413301184</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I31">
         <v>4122066000</v>
@@ -4999,7 +3511,7 @@
         <v>319.0909090909091</v>
       </c>
       <c r="K31" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L31">
         <v>1588653</v>
@@ -5011,117 +3523,69 @@
         <v>27345</v>
       </c>
       <c r="O31">
-        <v>75.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>24.04</v>
+        <v>37.4</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>26.99</v>
       </c>
       <c r="R31">
-        <v>13.76</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>8.279999999999999</v>
+        <v>0</v>
       </c>
       <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>31.18</v>
+      </c>
+      <c r="V31">
+        <v>3.26</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1.16</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>9.74</v>
+      </c>
+      <c r="AC31">
+        <v>67.42</v>
+      </c>
+      <c r="AD31">
+        <v>1.63</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
         <v>21.21</v>
       </c>
-      <c r="U31">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="V31">
-        <v>22.74</v>
-      </c>
-      <c r="W31">
-        <v>24.04</v>
-      </c>
-      <c r="X31">
-        <v>22.11</v>
-      </c>
-      <c r="Y31">
-        <v>67.98999999999999</v>
-      </c>
-      <c r="Z31">
-        <v>9.91</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>37.4</v>
-      </c>
-      <c r="AG31">
-        <v>26.99</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>31.18</v>
-      </c>
-      <c r="AL31">
-        <v>3.26</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>1.16</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>9.74</v>
-      </c>
-      <c r="AS31">
-        <v>67.42</v>
-      </c>
-      <c r="AT31">
-        <v>1.63</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>21.21</v>
-      </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>314123</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D32">
         <v>202202</v>
@@ -5133,10 +3597,10 @@
         <v>2972701162</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I32">
         <v>4122066000</v>
@@ -5145,7 +3609,7 @@
         <v>70.66060606060607</v>
       </c>
       <c r="K32" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L32">
         <v>77696770</v>
@@ -5157,117 +3621,69 @@
         <v>98107</v>
       </c>
       <c r="O32">
-        <v>77.73</v>
+        <v>15.01</v>
       </c>
       <c r="P32">
-        <v>22.27</v>
+        <v>16.72</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="R32">
-        <v>15.3</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="S32">
-        <v>6.81</v>
+        <v>0.14</v>
       </c>
       <c r="T32">
-        <v>4.97</v>
+        <v>5.58</v>
       </c>
       <c r="U32">
-        <v>28.29</v>
+        <v>20.18</v>
       </c>
       <c r="V32">
-        <v>22.36</v>
+        <v>18.41</v>
       </c>
       <c r="W32">
-        <v>22.27</v>
+        <v>2.89</v>
       </c>
       <c r="X32">
-        <v>19.3</v>
+        <v>2.29</v>
       </c>
       <c r="Y32">
-        <v>26.44</v>
+        <v>0.14</v>
       </c>
       <c r="Z32">
-        <v>44.71</v>
+        <v>0.3</v>
       </c>
       <c r="AA32">
-        <v>9.56</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>20.86</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>35.99</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE32">
-        <v>15.01</v>
+        <v>18.99</v>
       </c>
       <c r="AF32">
-        <v>16.72</v>
-      </c>
-      <c r="AG32">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="AH32">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="AI32">
-        <v>0.14</v>
-      </c>
-      <c r="AJ32">
-        <v>5.58</v>
-      </c>
-      <c r="AK32">
-        <v>20.18</v>
-      </c>
-      <c r="AL32">
-        <v>18.41</v>
-      </c>
-      <c r="AM32">
-        <v>2.89</v>
-      </c>
-      <c r="AN32">
-        <v>2.29</v>
-      </c>
-      <c r="AO32">
-        <v>0.14</v>
-      </c>
-      <c r="AP32">
-        <v>0.3</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>20.86</v>
-      </c>
-      <c r="AS32">
-        <v>35.99</v>
-      </c>
-      <c r="AT32">
-        <v>18</v>
-      </c>
-      <c r="AU32">
-        <v>18.99</v>
-      </c>
-      <c r="AV32">
         <v>5.7</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>326628</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D33">
         <v>202203</v>
@@ -5279,10 +3695,10 @@
         <v>2972701162</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I33">
         <v>4122066000</v>
@@ -5291,7 +3707,7 @@
         <v>70.66060606060607</v>
       </c>
       <c r="K33" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L33">
         <v>92359563</v>
@@ -5303,117 +3719,69 @@
         <v>73684</v>
       </c>
       <c r="O33">
-        <v>96.20999999999999</v>
+        <v>5.52</v>
       </c>
       <c r="P33">
-        <v>3.79</v>
+        <v>15.04</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>14.38</v>
       </c>
       <c r="R33">
-        <v>16.29</v>
+        <v>14.2</v>
       </c>
       <c r="S33">
-        <v>13.19</v>
+        <v>3.92</v>
       </c>
       <c r="T33">
-        <v>17.35</v>
+        <v>7.85</v>
       </c>
       <c r="U33">
-        <v>23.01</v>
+        <v>17.44</v>
       </c>
       <c r="V33">
-        <v>26.38</v>
+        <v>18.25</v>
       </c>
       <c r="W33">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="X33">
-        <v>12.18</v>
+        <v>0.37</v>
       </c>
       <c r="Y33">
-        <v>27.39</v>
+        <v>0.01</v>
       </c>
       <c r="Z33">
-        <v>28.92</v>
+        <v>1.39</v>
       </c>
       <c r="AA33">
-        <v>31.51</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>44.78</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>25.17</v>
       </c>
       <c r="AE33">
-        <v>5.52</v>
+        <v>19.07</v>
       </c>
       <c r="AF33">
-        <v>15.04</v>
-      </c>
-      <c r="AG33">
-        <v>14.38</v>
-      </c>
-      <c r="AH33">
-        <v>14.2</v>
-      </c>
-      <c r="AI33">
-        <v>3.92</v>
-      </c>
-      <c r="AJ33">
-        <v>7.85</v>
-      </c>
-      <c r="AK33">
-        <v>17.44</v>
-      </c>
-      <c r="AL33">
-        <v>18.25</v>
-      </c>
-      <c r="AM33">
-        <v>3.02</v>
-      </c>
-      <c r="AN33">
-        <v>0.37</v>
-      </c>
-      <c r="AO33">
-        <v>0.01</v>
-      </c>
-      <c r="AP33">
-        <v>1.39</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>5.07</v>
-      </c>
-      <c r="AS33">
-        <v>44.78</v>
-      </c>
-      <c r="AT33">
-        <v>25.17</v>
-      </c>
-      <c r="AU33">
-        <v>19.07</v>
-      </c>
-      <c r="AV33">
         <v>4.5</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>326629</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>202203</v>
@@ -5425,10 +3793,10 @@
         <v>6319201453</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I34">
         <v>4122066000</v>
@@ -5437,7 +3805,7 @@
         <v>107.8030303030303</v>
       </c>
       <c r="K34" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="L34">
         <v>21081679</v>
@@ -5449,117 +3817,69 @@
         <v>40146</v>
       </c>
       <c r="O34">
-        <v>93.62</v>
+        <v>1.02</v>
       </c>
       <c r="P34">
-        <v>6.38</v>
+        <v>10.59</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="R34">
-        <v>14.39</v>
+        <v>15.46</v>
       </c>
       <c r="S34">
-        <v>20.63</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="T34">
-        <v>20.31</v>
+        <v>17.73</v>
       </c>
       <c r="U34">
-        <v>30.55</v>
+        <v>12.53</v>
       </c>
       <c r="V34">
-        <v>7.73</v>
+        <v>15.92</v>
       </c>
       <c r="W34">
-        <v>6.38</v>
+        <v>7.51</v>
       </c>
       <c r="X34">
-        <v>11.61</v>
+        <v>4.79</v>
       </c>
       <c r="Y34">
-        <v>41.46</v>
+        <v>0.35</v>
       </c>
       <c r="Z34">
-        <v>30.68</v>
+        <v>3.37</v>
       </c>
       <c r="AA34">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>27.36</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>39.83</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>18.97</v>
       </c>
       <c r="AE34">
-        <v>1.02</v>
+        <v>4.71</v>
       </c>
       <c r="AF34">
-        <v>10.59</v>
-      </c>
-      <c r="AG34">
-        <v>5.91</v>
-      </c>
-      <c r="AH34">
-        <v>15.46</v>
-      </c>
-      <c r="AI34">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AJ34">
-        <v>17.73</v>
-      </c>
-      <c r="AK34">
-        <v>12.53</v>
-      </c>
-      <c r="AL34">
-        <v>15.92</v>
-      </c>
-      <c r="AM34">
-        <v>7.51</v>
-      </c>
-      <c r="AN34">
-        <v>4.79</v>
-      </c>
-      <c r="AO34">
-        <v>0.35</v>
-      </c>
-      <c r="AP34">
-        <v>3.37</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>27.36</v>
-      </c>
-      <c r="AS34">
-        <v>39.83</v>
-      </c>
-      <c r="AT34">
-        <v>18.97</v>
-      </c>
-      <c r="AU34">
-        <v>4.71</v>
-      </c>
-      <c r="AV34">
         <v>5.41</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>339195</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>202204</v>
@@ -5571,10 +3891,10 @@
         <v>2972701162</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I35">
         <v>4122066000</v>
@@ -5583,7 +3903,7 @@
         <v>70.66060606060607</v>
       </c>
       <c r="K35" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L35">
         <v>60343639</v>
@@ -5595,117 +3915,69 @@
         <v>45177</v>
       </c>
       <c r="O35">
-        <v>88.2</v>
+        <v>10.86</v>
       </c>
       <c r="P35">
-        <v>11.8</v>
+        <v>25.87</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="R35">
-        <v>41.63</v>
+        <v>4.23</v>
       </c>
       <c r="S35">
-        <v>11.41</v>
+        <v>0.87</v>
       </c>
       <c r="T35">
-        <v>7.01</v>
+        <v>11.01</v>
       </c>
       <c r="U35">
-        <v>9.84</v>
+        <v>32.17</v>
       </c>
       <c r="V35">
-        <v>18.31</v>
+        <v>7.71</v>
       </c>
       <c r="W35">
-        <v>11.8</v>
+        <v>4.23</v>
       </c>
       <c r="X35">
-        <v>4.06</v>
+        <v>0.32</v>
       </c>
       <c r="Y35">
-        <v>49.53</v>
+        <v>0.1</v>
       </c>
       <c r="Z35">
-        <v>26.95</v>
+        <v>2.44</v>
       </c>
       <c r="AA35">
-        <v>17.91</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>1.54</v>
+        <v>14.27</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>42.19</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>22.51</v>
       </c>
       <c r="AE35">
-        <v>10.86</v>
+        <v>10.5</v>
       </c>
       <c r="AF35">
-        <v>25.87</v>
-      </c>
-      <c r="AG35">
-        <v>2.73</v>
-      </c>
-      <c r="AH35">
-        <v>4.23</v>
-      </c>
-      <c r="AI35">
-        <v>0.87</v>
-      </c>
-      <c r="AJ35">
-        <v>11.01</v>
-      </c>
-      <c r="AK35">
-        <v>32.17</v>
-      </c>
-      <c r="AL35">
-        <v>7.71</v>
-      </c>
-      <c r="AM35">
-        <v>4.23</v>
-      </c>
-      <c r="AN35">
-        <v>0.32</v>
-      </c>
-      <c r="AO35">
-        <v>0.1</v>
-      </c>
-      <c r="AP35">
-        <v>2.44</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>14.27</v>
-      </c>
-      <c r="AS35">
-        <v>42.19</v>
-      </c>
-      <c r="AT35">
-        <v>22.51</v>
-      </c>
-      <c r="AU35">
-        <v>10.5</v>
-      </c>
-      <c r="AV35">
         <v>7.99</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>339196</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>202204</v>
@@ -5717,10 +3989,10 @@
         <v>6319201453</v>
       </c>
       <c r="G36" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I36">
         <v>4122066000</v>
@@ -5729,7 +4001,7 @@
         <v>107.8030303030303</v>
       </c>
       <c r="K36" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="L36">
         <v>85246873</v>
@@ -5741,117 +4013,69 @@
         <v>51090</v>
       </c>
       <c r="O36">
-        <v>86.34</v>
+        <v>0.22</v>
       </c>
       <c r="P36">
-        <v>13.66</v>
+        <v>12.17</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R36">
-        <v>19.39</v>
+        <v>13.81</v>
       </c>
       <c r="S36">
-        <v>13.04</v>
+        <v>1.64</v>
       </c>
       <c r="T36">
-        <v>12.93</v>
+        <v>9.57</v>
       </c>
       <c r="U36">
-        <v>19.86</v>
+        <v>27.96</v>
       </c>
       <c r="V36">
-        <v>21.11</v>
+        <v>14.85</v>
       </c>
       <c r="W36">
-        <v>13.66</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="X36">
-        <v>20.7</v>
+        <v>0.36</v>
       </c>
       <c r="Y36">
-        <v>39.06</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>24.83</v>
+        <v>0.38</v>
       </c>
       <c r="AA36">
-        <v>15.41</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>17.24</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>47.99</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE36">
-        <v>0.22</v>
+        <v>9.18</v>
       </c>
       <c r="AF36">
-        <v>12.17</v>
-      </c>
-      <c r="AG36">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH36">
-        <v>13.81</v>
-      </c>
-      <c r="AI36">
-        <v>1.64</v>
-      </c>
-      <c r="AJ36">
-        <v>9.57</v>
-      </c>
-      <c r="AK36">
-        <v>27.96</v>
-      </c>
-      <c r="AL36">
-        <v>14.85</v>
-      </c>
-      <c r="AM36">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="AN36">
-        <v>0.36</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0.38</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>17.24</v>
-      </c>
-      <c r="AS36">
-        <v>47.99</v>
-      </c>
-      <c r="AT36">
-        <v>19</v>
-      </c>
-      <c r="AU36">
-        <v>9.18</v>
-      </c>
-      <c r="AV36">
         <v>6.21</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:32">
       <c r="A37" s="1">
         <v>351843</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D37">
         <v>202205</v>
@@ -5863,10 +4087,10 @@
         <v>4259601588</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I37">
         <v>4122066000</v>
@@ -5875,7 +4099,7 @@
         <v>53.72121212121213</v>
       </c>
       <c r="K37" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="L37">
         <v>3690292</v>
@@ -5887,117 +4111,69 @@
         <v>6027</v>
       </c>
       <c r="O37">
-        <v>77.23999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="P37">
-        <v>22.76</v>
+        <v>22.73</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>9.81</v>
       </c>
       <c r="R37">
-        <v>17.54</v>
+        <v>1.76</v>
       </c>
       <c r="S37">
-        <v>16.99</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>10.48</v>
+        <v>3.16</v>
       </c>
       <c r="U37">
-        <v>14.39</v>
+        <v>35.73</v>
       </c>
       <c r="V37">
-        <v>17.84</v>
+        <v>13</v>
       </c>
       <c r="W37">
-        <v>22.76</v>
+        <v>1.62</v>
       </c>
       <c r="X37">
-        <v>36</v>
+        <v>10.34</v>
       </c>
       <c r="Y37">
-        <v>29.07</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>24.46</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>10.47</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>8.91</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>44.41</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>17.74</v>
       </c>
       <c r="AE37">
-        <v>1.85</v>
+        <v>13.55</v>
       </c>
       <c r="AF37">
-        <v>22.73</v>
-      </c>
-      <c r="AG37">
-        <v>9.81</v>
-      </c>
-      <c r="AH37">
-        <v>1.76</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <v>3.16</v>
-      </c>
-      <c r="AK37">
-        <v>35.73</v>
-      </c>
-      <c r="AL37">
-        <v>13</v>
-      </c>
-      <c r="AM37">
-        <v>1.62</v>
-      </c>
-      <c r="AN37">
-        <v>10.34</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>8.91</v>
-      </c>
-      <c r="AS37">
-        <v>44.41</v>
-      </c>
-      <c r="AT37">
-        <v>17.74</v>
-      </c>
-      <c r="AU37">
-        <v>13.55</v>
-      </c>
-      <c r="AV37">
         <v>15.39</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:32">
       <c r="A38" s="1">
         <v>351844</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D38">
         <v>202205</v>
@@ -6009,10 +4185,10 @@
         <v>2972701162</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I38">
         <v>4122066000</v>
@@ -6021,7 +4197,7 @@
         <v>70.66060606060607</v>
       </c>
       <c r="K38" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L38">
         <v>65351959</v>
@@ -6033,117 +4209,69 @@
         <v>44977</v>
       </c>
       <c r="O38">
-        <v>86.89</v>
+        <v>4.7</v>
       </c>
       <c r="P38">
-        <v>13.11</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>14.01</v>
       </c>
       <c r="R38">
-        <v>23.72</v>
+        <v>2.46</v>
       </c>
       <c r="S38">
-        <v>17.6</v>
+        <v>4.36</v>
       </c>
       <c r="T38">
-        <v>8.07</v>
+        <v>5.47</v>
       </c>
       <c r="U38">
-        <v>16.1</v>
+        <v>46.57</v>
       </c>
       <c r="V38">
-        <v>21.4</v>
+        <v>3.85</v>
       </c>
       <c r="W38">
-        <v>13.11</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="X38">
-        <v>12.13</v>
+        <v>0.15</v>
       </c>
       <c r="Y38">
-        <v>24.16</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>32.55</v>
+        <v>0.63</v>
       </c>
       <c r="AA38">
-        <v>30.85</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>0.31</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>41.81</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>34.11</v>
       </c>
       <c r="AE38">
-        <v>4.7</v>
+        <v>6.41</v>
       </c>
       <c r="AF38">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="AG38">
-        <v>14.01</v>
-      </c>
-      <c r="AH38">
-        <v>2.46</v>
-      </c>
-      <c r="AI38">
-        <v>4.36</v>
-      </c>
-      <c r="AJ38">
-        <v>5.47</v>
-      </c>
-      <c r="AK38">
-        <v>46.57</v>
-      </c>
-      <c r="AL38">
-        <v>3.85</v>
-      </c>
-      <c r="AM38">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="AN38">
-        <v>0.15</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>0.63</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AS38">
-        <v>41.81</v>
-      </c>
-      <c r="AT38">
-        <v>34.11</v>
-      </c>
-      <c r="AU38">
-        <v>6.41</v>
-      </c>
-      <c r="AV38">
         <v>8.23</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:32">
       <c r="A39" s="1">
         <v>351845</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D39">
         <v>202205</v>
@@ -6155,10 +4283,10 @@
         <v>6319201453</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I39">
         <v>4122066000</v>
@@ -6167,7 +4295,7 @@
         <v>107.8030303030303</v>
       </c>
       <c r="K39" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="L39">
         <v>110838052</v>
@@ -6179,117 +4307,69 @@
         <v>49815</v>
       </c>
       <c r="O39">
-        <v>91.13</v>
+        <v>1.5</v>
       </c>
       <c r="P39">
-        <v>8.869999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>11.09</v>
       </c>
       <c r="R39">
-        <v>21.09</v>
+        <v>10.05</v>
       </c>
       <c r="S39">
-        <v>23.96</v>
+        <v>1.89</v>
       </c>
       <c r="T39">
-        <v>11.7</v>
+        <v>14</v>
       </c>
       <c r="U39">
-        <v>13.31</v>
+        <v>23.25</v>
       </c>
       <c r="V39">
-        <v>21.06</v>
+        <v>22.79</v>
       </c>
       <c r="W39">
-        <v>8.869999999999999</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="X39">
-        <v>18.01</v>
+        <v>0.42</v>
       </c>
       <c r="Y39">
-        <v>36.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z39">
-        <v>28.19</v>
+        <v>0.34</v>
       </c>
       <c r="AA39">
-        <v>17.24</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>14.44</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>51.51</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>21.33</v>
       </c>
       <c r="AE39">
-        <v>1.5</v>
+        <v>7.63</v>
       </c>
       <c r="AF39">
-        <v>6.9</v>
-      </c>
-      <c r="AG39">
-        <v>11.09</v>
-      </c>
-      <c r="AH39">
-        <v>10.05</v>
-      </c>
-      <c r="AI39">
-        <v>1.89</v>
-      </c>
-      <c r="AJ39">
-        <v>14</v>
-      </c>
-      <c r="AK39">
-        <v>23.25</v>
-      </c>
-      <c r="AL39">
-        <v>22.79</v>
-      </c>
-      <c r="AM39">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="AN39">
-        <v>0.42</v>
-      </c>
-      <c r="AO39">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AP39">
-        <v>0.34</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>14.44</v>
-      </c>
-      <c r="AS39">
-        <v>51.51</v>
-      </c>
-      <c r="AT39">
-        <v>21.33</v>
-      </c>
-      <c r="AU39">
-        <v>7.63</v>
-      </c>
-      <c r="AV39">
         <v>4.07</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:32">
       <c r="A40" s="1">
         <v>351846</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D40">
         <v>202205</v>
@@ -6301,10 +4381,10 @@
         <v>1179414266</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I40">
         <v>4122066000</v>
@@ -6313,7 +4393,7 @@
         <v>103.1272727272727</v>
       </c>
       <c r="K40" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="L40">
         <v>6075350</v>
@@ -6325,105 +4405,57 @@
         <v>16270</v>
       </c>
       <c r="O40">
-        <v>87.26000000000001</v>
+        <v>7.46</v>
       </c>
       <c r="P40">
-        <v>12.74</v>
+        <v>7.09</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>9.73</v>
       </c>
       <c r="R40">
-        <v>38.23</v>
+        <v>17.12</v>
       </c>
       <c r="S40">
-        <v>13.98</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>12.03</v>
+        <v>7.06</v>
       </c>
       <c r="U40">
-        <v>5.12</v>
+        <v>22.98</v>
       </c>
       <c r="V40">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="W40">
-        <v>12.74</v>
+        <v>7.16</v>
       </c>
       <c r="X40">
-        <v>38.15</v>
+        <v>3.3</v>
       </c>
       <c r="Y40">
-        <v>42.95</v>
+        <v>1.32</v>
       </c>
       <c r="Z40">
-        <v>15.01</v>
+        <v>1.32</v>
       </c>
       <c r="AA40">
-        <v>3.89</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>27.49</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>34.78</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>29.16</v>
       </c>
       <c r="AE40">
-        <v>7.46</v>
+        <v>4.62</v>
       </c>
       <c r="AF40">
-        <v>7.09</v>
-      </c>
-      <c r="AG40">
-        <v>9.73</v>
-      </c>
-      <c r="AH40">
-        <v>17.12</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>7.06</v>
-      </c>
-      <c r="AK40">
-        <v>22.98</v>
-      </c>
-      <c r="AL40">
-        <v>18.1</v>
-      </c>
-      <c r="AM40">
-        <v>7.16</v>
-      </c>
-      <c r="AN40">
-        <v>3.3</v>
-      </c>
-      <c r="AO40">
-        <v>1.32</v>
-      </c>
-      <c r="AP40">
-        <v>1.32</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>27.49</v>
-      </c>
-      <c r="AS40">
-        <v>34.78</v>
-      </c>
-      <c r="AT40">
-        <v>29.16</v>
-      </c>
-      <c r="AU40">
-        <v>4.62</v>
-      </c>
-      <c r="AV40">
         <v>1.32</v>
       </c>
     </row>
